--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1194373.393229322</v>
+        <v>-1196271.625333447</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>347.7902760350595</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>317.8493542567033</v>
       </c>
     </row>
     <row r="3">
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>8.78742075103631</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>162.5776147681367</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.78672015367498</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>170.5708473530357</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>78.64571997422897</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>160.4034471042925</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>116.9647213798785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>38.96115854196098</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>248.0596779397534</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675401</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.92656778834942</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>94.16481274941266</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>161.1578965188296</v>
+        <v>29.18937547121108</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>58.4016882597743</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>150.5951517517459</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>105.2861465028069</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>123.4882626607343</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>77.8682875383153</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>5.562624396424917</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>242.4981118695096</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463035</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373733</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3436,7 +3436,7 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789546</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1620.08070321196</v>
+        <v>1001.280783616703</v>
       </c>
       <c r="C2" t="n">
-        <v>1251.118186271549</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D2" t="n">
-        <v>892.8524876647982</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>892.8524876647982</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>885.9069869155948</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.08070321196</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="Y2" t="n">
-        <v>1620.08070321196</v>
+        <v>1001.280783616703</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4422,10 +4422,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,43 +4492,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>290.8087152951862</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>281.9325327183818</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.353113282533</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.353113282533</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X5" t="n">
-        <v>1992.620445413572</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="Y5" t="n">
-        <v>1602.48111343776</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4650,10 +4650,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V7" t="n">
-        <v>648.6888630203443</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1376.372217881286</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2085.284562891219</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2085.284562891219</v>
       </c>
       <c r="W8" t="n">
-        <v>1881.118241157406</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="X8" t="n">
-        <v>1881.118241157406</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="Y8" t="n">
-        <v>1762.972057945408</v>
+        <v>1732.515907621104</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="W10" t="n">
-        <v>222.8791647482714</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="X10" t="n">
-        <v>222.8791647482714</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5066,25 +5066,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341671</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>841.8631140141287</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2520.760934363149</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>826.1356072130349</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>657.199424285128</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>507.0827848727922</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903991</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903991</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903991</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1456.566202084822</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1456.566202084822</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1456.566202084822</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.566202084822</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>1456.566202084822</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W13" t="n">
-        <v>1456.566202084822</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>1228.576651186805</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>1007.784072043275</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5261,40 +5261,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>485.4047026089419</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>732.1698305154059</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2227.840212610279</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2432.862693392488</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1336.130516498479</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1047.001877712037</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>1047.001877712037</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>1047.001877712037</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>819.0123268140193</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>598.2197476704891</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>324.3840174432676</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C19" t="n">
-        <v>324.3840174432676</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150548</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="X19" t="n">
-        <v>726.8250614170374</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.0324822735073</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>484.0375086983735</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>315.1013257704666</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286132</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>665.6859735286132</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y22" t="n">
-        <v>665.6859735286132</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,7 +6005,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>378.1030765138945</v>
       </c>
       <c r="L24" t="n">
-        <v>735.0407559057238</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M24" t="n">
-        <v>1503.408902298185</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962218</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>538.8019868198124</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>369.8658038919056</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>369.8658038919056</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>221.9527103095124</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>221.9527103095124</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V25" t="n">
-        <v>1009.867621687013</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W25" t="n">
-        <v>720.4504516500522</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X25" t="n">
-        <v>720.4504516500522</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y25" t="n">
-        <v>720.4504516500522</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6230,7 +6230,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>1026.505047571597</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1333.825180851558</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N27" t="n">
-        <v>2041.248044820708</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O27" t="n">
-        <v>2320.788110039405</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>562.3990000507114</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="C28" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W28" t="n">
-        <v>964.8400440244812</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="X28" t="n">
-        <v>964.8400440244812</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="Y28" t="n">
-        <v>744.0474648809511</v>
+        <v>102.8359039819272</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6543,22 +6543,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>380.9740019042124</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>627.7391298106764</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1396.107276203138</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1725.969903867171</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O30" t="n">
-        <v>2005.509969085868</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506717</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504503</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210312</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982963</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6643,7 +6643,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S31" t="n">
         <v>1865.165908942116</v>
@@ -6658,13 +6658,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="32">
@@ -6680,46 +6680,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6786,19 +6786,19 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>841.863114014129</v>
+        <v>1006.183580119176</v>
       </c>
       <c r="N33" t="n">
-        <v>1346.676219880508</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504516</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,19 +6856,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
@@ -7023,19 +7023,19 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1016.813592216476</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N36" t="n">
-        <v>1346.676219880508</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7151,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M39" t="n">
-        <v>1236.836466556557</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>2041.248044820708</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>2320.788110039405</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7336,13 +7336,13 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>638.3691419079765</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7728,25 +7728,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>943.0172707642139</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1711.385417156675</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N45" t="n">
-        <v>2041.248044820708</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,61 +7780,61 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103132</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254963</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649698</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025263</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
   </sheetData>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8778,19 +8778,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>360.502686290726</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>15.83804904622824</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>199.6230805871097</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>104.6241510367944</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,16 +9246,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>104.874910276575</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>189.0022427662466</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,28 +9480,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>414.5002179180844</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>199.7396287231153</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>91.23759968302147</v>
       </c>
       <c r="L24" t="n">
-        <v>76.43196988338559</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>381.3739760657747</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,25 +10191,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>94.13752431970619</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>134.4977453535105</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,10 +10434,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>165.9802687929763</v>
       </c>
       <c r="N33" t="n">
-        <v>176.717654749845</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10671,22 +10671,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>176.7176547498451</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>80.50021372615217</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10905,25 +10905,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="M39" t="n">
-        <v>398.9629823660891</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,10 +11142,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>104.874910276575</v>
       </c>
       <c r="M42" t="n">
-        <v>308.1251096272033</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,19 +11376,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>22.04402060665552</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>369.0893880493734</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22708,16 +22708,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>161.7950029260642</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>114.413533365883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>68.03778461544337</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>60.38966453955962</v>
+        <v>192.3581855871782</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>90.21378475843805</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>135.9278465848451</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>36.51615797628583</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>43.32932651540541</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>43.00530580264326</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>174.2693557855127</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>161.6841967022029</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>44.02488646708144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-12</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142387.7480708447</v>
+        <v>142387.7480708446</v>
       </c>
       <c r="C2" t="n">
-        <v>143682.3097262498</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="E2" t="n">
+        <v>136860.1709081982</v>
+      </c>
+      <c r="F2" t="n">
         <v>136860.1709081981</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>136860.1709081982</v>
-      </c>
-      <c r="G2" t="n">
-        <v>136860.1709081981</v>
       </c>
       <c r="H2" t="n">
         <v>136860.1709081981</v>
       </c>
       <c r="I2" t="n">
-        <v>136860.1709081981</v>
+        <v>136860.1709081982</v>
       </c>
       <c r="J2" t="n">
         <v>136860.1709081981</v>
       </c>
       <c r="K2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="L2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="M2" t="n">
+        <v>143682.3097262494</v>
+      </c>
+      <c r="N2" t="n">
         <v>143682.3097262496</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>143682.3097262495</v>
       </c>
-      <c r="O2" t="n">
-        <v>143682.3097262494</v>
-      </c>
       <c r="P2" t="n">
-        <v>143682.3097262494</v>
+        <v>143682.3097262497</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371248</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.5121037125</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152552.7115643755</v>
+        <v>152552.7115643754</v>
       </c>
       <c r="C4" t="n">
         <v>156774.9582512226</v>
@@ -26430,7 +26430,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26442,22 +26442,22 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275956</v>
       </c>
       <c r="L4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="M4" t="n">
         <v>37464.45686275959</v>
       </c>
-      <c r="M4" t="n">
-        <v>37464.45686275958</v>
-      </c>
       <c r="N4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="O4" t="n">
         <v>37464.45686275957</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>37464.45686275959</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37464.45686275958</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26494,13 +26494,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-682991.9207714846</v>
+        <v>-683010.4145094192</v>
       </c>
       <c r="C6" t="n">
-        <v>-95951.7265883823</v>
+        <v>-95951.72658838241</v>
       </c>
       <c r="D6" t="n">
-        <v>-95951.72658838239</v>
+        <v>-95951.72658838247</v>
       </c>
       <c r="E6" t="n">
-        <v>-495332.8611388535</v>
+        <v>-495430.3202648259</v>
       </c>
       <c r="F6" t="n">
-        <v>29827.17533804245</v>
+        <v>29729.71621207015</v>
       </c>
       <c r="G6" t="n">
-        <v>29827.17533804238</v>
+        <v>29729.71621207027</v>
       </c>
       <c r="H6" t="n">
-        <v>29827.17533804242</v>
+        <v>29729.71621207021</v>
       </c>
       <c r="I6" t="n">
-        <v>29827.17533804239</v>
+        <v>29729.71621207031</v>
       </c>
       <c r="J6" t="n">
-        <v>-146596.0438545505</v>
+        <v>-146693.5029805227</v>
       </c>
       <c r="K6" t="n">
-        <v>-46002.76506024793</v>
+        <v>-46002.76506024796</v>
       </c>
       <c r="L6" t="n">
         <v>8502.747043464697</v>
       </c>
       <c r="M6" t="n">
-        <v>-126298.2681903726</v>
+        <v>-126298.2681903728</v>
       </c>
       <c r="N6" t="n">
-        <v>8502.747043464522</v>
+        <v>8502.747043464595</v>
       </c>
       <c r="O6" t="n">
-        <v>8502.747043464449</v>
+        <v>8502.74704346458</v>
       </c>
       <c r="P6" t="n">
-        <v>-46002.76506024806</v>
+        <v>-46002.76506024782</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26771,13 +26771,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="3">
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>65.99389398573544</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>68.38858439935029</v>
       </c>
     </row>
     <row r="3">
@@ -27540,16 +27540,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>5.51479933298674</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>243.3502225727917</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>123.9453835684543</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>104.1711199862118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>348.9471215098056</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,7 +27664,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>199.1602533254333</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27825,13 +27825,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>173.491923349599</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>90.8207204039968</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>269.273217276175</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>247.3207157000168</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>38.46332039683756</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.20792265079217e-12</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.723171768962981e-12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="35">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31929,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,13 +35018,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>693.6972596887388</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>103.8510818313024</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,16 +35647,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>350.1985191750489</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>192.6371838218685</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>438.0694836745878</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>471.3659450073548</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>747.6947913160973</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>482.1033309642235</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>241.8130382709607</v>
       </c>
       <c r="L24" t="n">
-        <v>325.6896748394099</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>714.5685494637877</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>481.9867828282169</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>244.7129629076454</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>222.5107781385846</v>
       </c>
       <c r="R30" t="n">
         <v>10.73738595686864</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O31" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37154,10 +37154,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>476.4046458434426</v>
       </c>
       <c r="N33" t="n">
-        <v>509.9122281478579</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>676.2260215178377</v>
@@ -37169,7 +37169,7 @@
         <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37324,7 +37324,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R35" t="n">
         <v>59.8253897034981</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>487.1420318003114</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>168.5132465112263</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,19 +37543,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>609.76039124675</v>
       </c>
       <c r="M39" t="n">
-        <v>709.3873594165555</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>354.1326152325993</v>
       </c>
       <c r="M42" t="n">
-        <v>618.5494866776696</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>271.3017255626798</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>702.2839614473862</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
